--- a/file 5.xlsx
+++ b/file 5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassan Laptop Point\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="211">
   <si>
     <t>03679937</t>
   </si>
@@ -282,6 +282,381 @@
   </si>
   <si>
     <t>07683634</t>
+  </si>
+  <si>
+    <t>CERAVE ANTI-UNREINHEITEN GEL TB 40 ML</t>
+  </si>
+  <si>
+    <t>CERAVE FEUCHTIGKEITSCREME DISP 454 G</t>
+  </si>
+  <si>
+    <t>CERAVE FEUCHTIGKEITSCREME DS 454 G</t>
+  </si>
+  <si>
+    <t>CERAVE FEUCHTIGKEITSCREME TB 177 ML</t>
+  </si>
+  <si>
+    <t>CERAVE FEUCHTIGKEITSLOTION DISP 236 ML</t>
+  </si>
+  <si>
+    <t>CERAVE FEUCHTIGKEITSLOTION DISP 473 ML</t>
+  </si>
+  <si>
+    <t>CERAVE FEUCHTIGKEITSSPEND GESICHTSCR DIS</t>
+  </si>
+  <si>
+    <t>CERAVE FEUCHTIGKEITSSPENDENDE REINIGUNG</t>
+  </si>
+  <si>
+    <t>CERAVE HAUTBILDERNEUERND RETINOL SERUM</t>
+  </si>
+  <si>
+    <t>CERAVE PORENTIEFE REINIGUNG FL 236 ML</t>
+  </si>
+  <si>
+    <t>CERAVE REGENERIERENDE AUGENCREME TB 14</t>
+  </si>
+  <si>
+    <t>CERAVE REGENERIERENDE HANDCREME TB 100</t>
+  </si>
+  <si>
+    <t>VICHY AQUALIA SERUM FL 30 ML</t>
+  </si>
+  <si>
+    <t>VICHY AQUALIA THERMAL LEICHT D/FR 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY AQUALIA THERMAL LEICHT TB 30 ML</t>
+  </si>
+  <si>
+    <t>VICHY AQUALIA THERMAL LEICHT TOPF 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY AQUALIA THERMAL REICHHALTIG TB 30 ML</t>
+  </si>
+  <si>
+    <t>VICHY AQUALIA THERMAL REICHHALTIG TOPF 50</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL FRISCH SPR BRONZ LSF50</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL FRISCH SPR FEUCH LSF50</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL MATT 3IN1 PFL SPF50+ TB</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL MULTI-SCHUTZ MILCH 30 2</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL MULTI-SCHUTZ SPRAY 50+</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL UV AGE LSF50+ LIFT NACH</t>
+  </si>
+  <si>
+    <t>VICHY CS SONNENSCHUTZ-MILCH LSF30 TB 300 M</t>
+  </si>
+  <si>
+    <t>VICHY DEMAQUILLANT INTEGRAL 3 IN 1 TB 200 ML</t>
+  </si>
+  <si>
+    <t>VICHY DEO ANTI-FLECKEN ROLL-ON 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY DEO ANTI-FLECKEN SPR 125 ML</t>
+  </si>
+  <si>
+    <t>VICHY DEO ANTI-TRANSPIRANT ROLL-ON 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY DEO CREME 7 TAGE REGULIEREND 30 ML</t>
+  </si>
+  <si>
+    <t>VICHY DEO EMPFIND HAUT ANTI-TRANSPI ROLL-O</t>
+  </si>
+  <si>
+    <t>VICHY DEO HAUTBERUHIGEND STICK 40 ML</t>
+  </si>
+  <si>
+    <t>VICHY DEO MINERAL 48H ROLL ON 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY DEO SPRAY INTENSIVE FRISCHE 48H 100 M</t>
+  </si>
+  <si>
+    <t>VICHY DEO SPRAY OPTIMALE VERTRAEGLICH 48H</t>
+  </si>
+  <si>
+    <t>VICHY DEO STRESS RESIST ROLL-ON 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS AMINEXIL CLINICAL 5 FRAUEN 21 X</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS AMINEXIL CLINICAL 5 MAENNER 21</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS AMINEXIL SCHAUM MAENNER SPR</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS ANTI SCHUPPEN SHAMP SENS DE/I</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS ANTI SCHUPPEN SHAMP TROC DE/</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS ENERGISING SHAMPOO MEN DE F</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS KERA SOLUTIONS SHAMPOO DE F</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS NUTRIENTS DETOX SHAMPOO DE</t>
+  </si>
+  <si>
+    <t>CERAVE FEUCHTIG SCHAEUM REINIGUNGSOEL DI</t>
+  </si>
+  <si>
+    <t>CERAVE SA GLAETTENDE REINIGUNG DISP 236 ML</t>
+  </si>
+  <si>
+    <t>CERAVE SCHAEUMENDES REINIGUNGSGEL DISP 2</t>
+  </si>
+  <si>
+    <t>CERAVE SCHAEUMENDES REINIGUNGSGEL DISP 4</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL MULTI-SCHUTZ MILCH 50+</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL SPR FL PRO CELL LSF30 20</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL SPR FL PRO CELL LSF50+2</t>
+  </si>
+  <si>
+    <t>VICHY CAPITAL SOLEIL UV AGE DAILY LSF50+40 M</t>
+  </si>
+  <si>
+    <t>VICHY CS SONNENSCHUTZ-MILCH LSF30+NACH D</t>
+  </si>
+  <si>
+    <t>VICHY DEO ANTI NAESSE ROLL-ON 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS NUTRIENTS DETOX SPUELUNG TB</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS NUTRIENTS NUT PROT MASKE TO</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS NUTRIENTS NUT PROT SHAM DE F</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS NUTRIENTS VITAMIN SHAMP DE FL</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS SHAMP ULTRA-SEN FE KOPFH DE/I</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS SHAMP ULTRA-SEN TR KOPFH DE/I</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS VITAL SHAMPOO 400 ML</t>
+  </si>
+  <si>
+    <t>VICHY DERCOS VITAL SPUELUNG TB 200 ML</t>
+  </si>
+  <si>
+    <t>VICHY EAU THERMALE ATOMISEUR 150 ML</t>
+  </si>
+  <si>
+    <t>VICHY HOMME DEO 48H EMPF HAUT ROLL-ON 50 M</t>
+  </si>
+  <si>
+    <t>VICHY HOMME DEO ANTI-FLECKEN 48H ROLL-ON 5</t>
+  </si>
+  <si>
+    <t>VICHY HOMME DEO ANTI-T 72H ROLL-ON 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY HOMME DEO C.C ROLL-ON 96H DE/IT/FR 50</t>
+  </si>
+  <si>
+    <t>VICHY HOMME DEO ULTRA-FRISCH VAPO 100 ML</t>
+  </si>
+  <si>
+    <t>VICHY HOMME DUSCHGEL FEUCHTIGKEITSSPEND</t>
+  </si>
+  <si>
+    <t>VICHY HOMME HYDRA COOL+ TB 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY HOMME HYDRA MAG C DISP 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY HOMME RASIERGEL ANTI-HAUTIRRITATION</t>
+  </si>
+  <si>
+    <t>VICHY HOMME RASIERSCHAUM ANTI HAUTIRRITAT</t>
+  </si>
+  <si>
+    <t>VICHY HOMME SENSI-BALSAM CA BERUHI EMPF H</t>
+  </si>
+  <si>
+    <t>VICHY HOMME WEIHNACHTSNECESS 2015 KIT RAS</t>
+  </si>
+  <si>
+    <t>VICHY IDEAL SOLEIL FRISCHE SPRAY BRON LSF30</t>
+  </si>
+  <si>
+    <t>VICHY IDEAL SOLEIL FRISCHE SPRAY HYDR LSF30</t>
+  </si>
+  <si>
+    <t>VICHY IS ANTI-PIG FLECK CR 3IN1 GETOE LSF50+5</t>
+  </si>
+  <si>
+    <t>VICHY IS FRISCHER GESICHTSPRAY LSF50 75 ML</t>
+  </si>
+  <si>
+    <t>VICHY IS GEL-FLUID VERBESSERTE BRAEUNE LSF</t>
+  </si>
+  <si>
+    <t>VICHY IS KINDER-MILCH LSF50 300 ML</t>
+  </si>
+  <si>
+    <t>VICHY IS MATTIERENDES SONNEN-FLUID LSF30 50</t>
+  </si>
+  <si>
+    <t>VICHY IS MATTIERENDES SONNEN-FLUID LSF50 50</t>
+  </si>
+  <si>
+    <t>VICHY IS NACH DER SONNE PFLEGE-MILCH 300 ML</t>
+  </si>
+  <si>
+    <t>VICHY IS SELBSTBRAEUNER FEUCHTIGKEITSP MIL</t>
+  </si>
+  <si>
+    <t>VICHY IS SONNENSCHUTZ-MILCH LSF50+300 ML</t>
+  </si>
+  <si>
+    <t>VICHY IS STICK FEMPFINDL HAUTPARTIEN LSF50+</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV ADVANCED FILLER 30 ML</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV AMPU PEPTIDES-C DE/FR 30 X 1.8</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV B3 ANTI-PIGM NACHTCR DS 50 M</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV COLLAGEN INTENSIFIER TOPF 50</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV DERMIS AKTIVATOR TECHN AUG</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV FLEXILIFT 15 30 ML</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV HYALU PATCHS</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV SERUM 10 AUGEN FL 15 ML</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV SPECIALIST B3 SERUM FL 30 ML</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV SUPREME H.A. EPI FILL DE/FR 30</t>
+  </si>
+  <si>
+    <t>VICHY LIFTACTIV SUPREME NACHTCREME TOPF 5</t>
+  </si>
+  <si>
+    <t>VICHY MINERAL 89 AUGENPFLEGE FL 15 ML</t>
+  </si>
+  <si>
+    <t>VICHY MINERAL 89 DE FL 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY MINERAL 89 FL 75 ML</t>
+  </si>
+  <si>
+    <t>VICHY MINERAL 89 MASKE BTL 29 G</t>
+  </si>
+  <si>
+    <t>VICHY MINERAL 89 PROBIOTIC FRACTIONS ( FL 30</t>
+  </si>
+  <si>
+    <t>VICHY NEOVADIOL GF CREME NACHT TOPF 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY NEOVADIOL MAGISTRAL NACHT TOPF 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY NEOVADIOL PERI-MENO NACHT TOPF 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY NEOVADIOL PERI-MENO TAG NH TOPF 50 M</t>
+  </si>
+  <si>
+    <t>VICHY NEOVADIOL PHYTOSCULPT CREME TB 50 M</t>
+  </si>
+  <si>
+    <t>VICHY NEOVADIOL POST-MENO NACHT TOPF 50 M</t>
+  </si>
+  <si>
+    <t>VICHY NEOVADIOL POST-MENO TAG TOPF 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY NORMADERM ANTI-AGE CREME 50 ML</t>
+  </si>
+  <si>
+    <t>VICHY NORMADERM PHYTOSOLUTION GESICHTSP</t>
+  </si>
+  <si>
+    <t>VICHY NORMADERM PHYTOSOLUTION REINIGUNG</t>
+  </si>
+  <si>
+    <t>VICHY NORMADERM REINIGUNG 3IN1 TB 125 ML</t>
+  </si>
+  <si>
+    <t>VICHY NORMADERM REINIGUNGS PEELING 125 ML</t>
+  </si>
+  <si>
+    <t>VICHY NORMADERM REINIGUNGSLOTION DE 200 M</t>
+  </si>
+  <si>
+    <t>VICHY NORMADERM SOS SCHWEFEL-ANTIKNOSP</t>
+  </si>
+  <si>
+    <t>VICHY PURETE THERM AUG MAKE-UP ENTF WATE</t>
+  </si>
+  <si>
+    <t>VICHY PURETE THERM FEUCHT GESICHTSWASSE</t>
+  </si>
+  <si>
+    <t>VICHY PURETE THERM MIZELLEN REIN FLU EMPF</t>
+  </si>
+  <si>
+    <t>VICHY PURETE THERM REINIGUNGS-SCHAUM FL 1</t>
+  </si>
+  <si>
+    <t>VICHY PURETE THERM REINIGUNGSGEL (NEU) TB</t>
+  </si>
+  <si>
+    <t>VICHY PURETE THERM REINIGUNGSGEL 200 ML</t>
+  </si>
+  <si>
+    <t>VICHY PURETE THERM REINIGUNGSMILCH 3IN1 30</t>
+  </si>
+  <si>
+    <t>VICHY STRUCTURE FORCE TB 50 ML</t>
   </si>
 </sst>
 </file>
@@ -323,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -332,6 +707,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +1002,7 @@
     <col min="1" max="3" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>7835766</v>
       </c>
@@ -633,8 +1012,11 @@
       <c r="C1" s="1">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>7788858</v>
       </c>
@@ -644,8 +1026,11 @@
       <c r="C2" s="1">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7784512</v>
       </c>
@@ -655,8 +1040,11 @@
       <c r="C3" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7402090</v>
       </c>
@@ -666,8 +1054,11 @@
       <c r="C4" s="1">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7402084</v>
       </c>
@@ -677,8 +1068,11 @@
       <c r="C5" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7402061</v>
       </c>
@@ -688,8 +1082,11 @@
       <c r="C6" s="1">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7402078</v>
       </c>
@@ -699,8 +1096,11 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7401989</v>
       </c>
@@ -710,8 +1110,11 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7402026</v>
       </c>
@@ -721,8 +1124,11 @@
       <c r="C9" s="1">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7402032</v>
       </c>
@@ -732,8 +1138,11 @@
       <c r="C10" s="1">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7835767</v>
       </c>
@@ -743,8 +1152,11 @@
       <c r="C11" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7835765</v>
       </c>
@@ -754,8 +1166,11 @@
       <c r="C12" s="1">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7401966</v>
       </c>
@@ -765,8 +1180,11 @@
       <c r="C13" s="1">
         <v>69.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7781413</v>
       </c>
@@ -776,8 +1194,11 @@
       <c r="C14" s="1">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7751004</v>
       </c>
@@ -787,8 +1208,11 @@
       <c r="C15" s="1">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>7402049</v>
       </c>
@@ -798,8 +1222,11 @@
       <c r="C16" s="1">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7402055</v>
       </c>
@@ -809,8 +1236,11 @@
       <c r="C17" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7293330</v>
       </c>
@@ -820,8 +1250,11 @@
       <c r="C18" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5902032</v>
       </c>
@@ -831,8 +1264,11 @@
       <c r="C19" s="1">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7293353</v>
       </c>
@@ -842,8 +1278,11 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7293347</v>
       </c>
@@ -853,8 +1292,11 @@
       <c r="C21" s="1">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7293382</v>
       </c>
@@ -864,8 +1306,11 @@
       <c r="C22" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7293376</v>
       </c>
@@ -875,8 +1320,11 @@
       <c r="C23" s="1">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7751431</v>
       </c>
@@ -886,8 +1334,11 @@
       <c r="C24" s="1">
         <v>115.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7751430</v>
       </c>
@@ -897,8 +1348,11 @@
       <c r="C25" s="1">
         <v>308</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7751432</v>
       </c>
@@ -908,8 +1362,11 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7580325</v>
       </c>
@@ -919,8 +1376,11 @@
       <c r="C27" s="1">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>7580319</v>
       </c>
@@ -930,8 +1390,11 @@
       <c r="C28" s="1">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7580331</v>
       </c>
@@ -941,8 +1404,11 @@
       <c r="C29" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>7815157</v>
       </c>
@@ -952,8 +1418,11 @@
       <c r="C30" s="1">
         <v>217.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>7815158</v>
       </c>
@@ -963,8 +1432,11 @@
       <c r="C31" s="1">
         <v>115.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>7783236</v>
       </c>
@@ -974,8 +1446,11 @@
       <c r="C32" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7785000</v>
       </c>
@@ -985,8 +1460,11 @@
       <c r="C33" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4399312</v>
       </c>
@@ -996,8 +1474,11 @@
       <c r="C34" s="1">
         <v>795</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6154460</v>
       </c>
@@ -1007,8 +1488,11 @@
       <c r="C35" s="1">
         <v>3074</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3396671</v>
       </c>
@@ -1018,8 +1502,11 @@
       <c r="C36" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4781997</v>
       </c>
@@ -1029,8 +1516,11 @@
       <c r="C37" s="1">
         <v>492</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5445557</v>
       </c>
@@ -1040,8 +1530,11 @@
       <c r="C38" s="1">
         <v>286</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5445563</v>
       </c>
@@ -1051,8 +1544,11 @@
       <c r="C39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>3679943</v>
       </c>
@@ -1062,8 +1558,11 @@
       <c r="C40" s="1">
         <v>102.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2456773</v>
       </c>
@@ -1073,8 +1572,11 @@
       <c r="C41" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -1084,8 +1586,11 @@
       <c r="C42" s="1">
         <v>840.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1</v>
       </c>
@@ -1095,8 +1600,11 @@
       <c r="C43" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -1106,8 +1614,11 @@
       <c r="C44" s="1">
         <v>389.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
@@ -1117,8 +1628,11 @@
       <c r="C45" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -1128,8 +1642,11 @@
       <c r="C46" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -1139,8 +1656,11 @@
       <c r="C47" s="1">
         <v>924</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -1150,8 +1670,11 @@
       <c r="C48" s="1">
         <v>595</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1684,11 @@
       <c r="C49" s="1">
         <v>595</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -1172,8 +1698,11 @@
       <c r="C50" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -1183,8 +1712,11 @@
       <c r="C51" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1726,11 @@
       <c r="C52" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>11</v>
       </c>
@@ -1205,8 +1740,11 @@
       <c r="C53" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
@@ -1216,8 +1754,11 @@
       <c r="C54" s="1">
         <v>87.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
@@ -1227,8 +1768,11 @@
       <c r="C55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
@@ -1238,8 +1782,11 @@
       <c r="C56" s="1">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>15</v>
       </c>
@@ -1249,8 +1796,11 @@
       <c r="C57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -1260,8 +1810,11 @@
       <c r="C58" s="1">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
@@ -1271,8 +1824,11 @@
       <c r="C59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -1282,8 +1838,11 @@
       <c r="C60" s="1">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
@@ -1293,8 +1852,11 @@
       <c r="C61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
@@ -1304,8 +1866,11 @@
       <c r="C62" s="1">
         <v>636.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
@@ -1315,8 +1880,11 @@
       <c r="C63" s="1">
         <v>372</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
@@ -1326,8 +1894,11 @@
       <c r="C64" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -1337,8 +1908,11 @@
       <c r="C65" s="1">
         <v>410</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -1348,8 +1922,11 @@
       <c r="C66" s="1">
         <v>635.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
@@ -1359,8 +1936,11 @@
       <c r="C67" s="1">
         <v>512.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>26</v>
       </c>
@@ -1370,8 +1950,11 @@
       <c r="C68" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>27</v>
       </c>
@@ -1381,8 +1964,11 @@
       <c r="C69" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>28</v>
       </c>
@@ -1392,8 +1978,11 @@
       <c r="C70" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>29</v>
       </c>
@@ -1403,8 +1992,11 @@
       <c r="C71" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>30</v>
       </c>
@@ -1414,8 +2006,11 @@
       <c r="C72" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>31</v>
       </c>
@@ -1425,8 +2020,11 @@
       <c r="C73" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>32</v>
       </c>
@@ -1436,8 +2034,11 @@
       <c r="C74" s="1">
         <v>264</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>33</v>
       </c>
@@ -1447,8 +2048,11 @@
       <c r="C75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -1458,8 +2062,11 @@
       <c r="C76" s="1">
         <v>1134</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>35</v>
       </c>
@@ -1469,8 +2076,11 @@
       <c r="C77" s="1">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>36</v>
       </c>
@@ -1480,8 +2090,11 @@
       <c r="C78" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>37</v>
       </c>
@@ -1491,8 +2104,11 @@
       <c r="C79" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>38</v>
       </c>
@@ -1502,8 +2118,11 @@
       <c r="C80" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>39</v>
       </c>
@@ -1513,8 +2132,11 @@
       <c r="C81" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>40</v>
       </c>
@@ -1524,8 +2146,11 @@
       <c r="C82" s="1">
         <v>3074</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>41</v>
       </c>
@@ -1535,8 +2160,11 @@
       <c r="C83" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>42</v>
       </c>
@@ -1546,8 +2174,11 @@
       <c r="C84" s="1">
         <v>95.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
@@ -1557,8 +2188,11 @@
       <c r="C85" s="1">
         <v>5088</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
@@ -1568,8 +2202,11 @@
       <c r="C86" s="1">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>45</v>
       </c>
@@ -1579,8 +2216,11 @@
       <c r="C87" s="1">
         <v>1219</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>46</v>
       </c>
@@ -1590,8 +2230,11 @@
       <c r="C88" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>47</v>
       </c>
@@ -1601,8 +2244,11 @@
       <c r="C89" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>48</v>
       </c>
@@ -1612,8 +2258,11 @@
       <c r="C90" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>49</v>
       </c>
@@ -1623,8 +2272,11 @@
       <c r="C91" s="1">
         <v>221.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>50</v>
       </c>
@@ -1634,8 +2286,11 @@
       <c r="C92" s="1">
         <v>405</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>51</v>
       </c>
@@ -1645,8 +2300,11 @@
       <c r="C93" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>52</v>
       </c>
@@ -1656,8 +2314,11 @@
       <c r="C94" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>53</v>
       </c>
@@ -1667,8 +2328,11 @@
       <c r="C95" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>54</v>
       </c>
@@ -1678,8 +2342,11 @@
       <c r="C96" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>55</v>
       </c>
@@ -1689,8 +2356,11 @@
       <c r="C97" s="1">
         <v>274</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>56</v>
       </c>
@@ -1700,8 +2370,11 @@
       <c r="C98" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>57</v>
       </c>
@@ -1711,8 +2384,11 @@
       <c r="C99" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>58</v>
       </c>
@@ -1722,8 +2398,11 @@
       <c r="C100" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>59</v>
       </c>
@@ -1733,8 +2412,11 @@
       <c r="C101" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>60</v>
       </c>
@@ -1744,8 +2426,11 @@
       <c r="C102" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>61</v>
       </c>
@@ -1755,8 +2440,11 @@
       <c r="C103" s="1">
         <v>133.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>62</v>
       </c>
@@ -1766,8 +2454,11 @@
       <c r="C104" s="1">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>63</v>
       </c>
@@ -1777,8 +2468,11 @@
       <c r="C105" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>64</v>
       </c>
@@ -1788,8 +2482,11 @@
       <c r="C106" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>65</v>
       </c>
@@ -1799,8 +2496,11 @@
       <c r="C107" s="1">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>66</v>
       </c>
@@ -1810,8 +2510,11 @@
       <c r="C108" s="1">
         <v>119.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>67</v>
       </c>
@@ -1821,8 +2524,11 @@
       <c r="C109" s="1">
         <v>325</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>68</v>
       </c>
@@ -1832,8 +2538,11 @@
       <c r="C110" s="1">
         <v>119.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>69</v>
       </c>
@@ -1843,8 +2552,11 @@
       <c r="C111" s="1">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>70</v>
       </c>
@@ -1854,8 +2566,11 @@
       <c r="C112" s="1">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>71</v>
       </c>
@@ -1865,8 +2580,11 @@
       <c r="C113" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>72</v>
       </c>
@@ -1876,8 +2594,11 @@
       <c r="C114" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>73</v>
       </c>
@@ -1887,8 +2608,11 @@
       <c r="C115" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>74</v>
       </c>
@@ -1898,8 +2622,11 @@
       <c r="C116" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>75</v>
       </c>
@@ -1909,8 +2636,11 @@
       <c r="C117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>76</v>
       </c>
@@ -1920,8 +2650,11 @@
       <c r="C118" s="1">
         <v>77.7</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>77</v>
       </c>
@@ -1931,8 +2664,11 @@
       <c r="C119" s="1">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>78</v>
       </c>
@@ -1942,8 +2678,11 @@
       <c r="C120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>79</v>
       </c>
@@ -1953,8 +2692,11 @@
       <c r="C121" s="1">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>80</v>
       </c>
@@ -1964,8 +2706,11 @@
       <c r="C122" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>81</v>
       </c>
@@ -1975,8 +2720,11 @@
       <c r="C123" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>82</v>
       </c>
@@ -1986,8 +2734,11 @@
       <c r="C124" s="1">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>83</v>
       </c>
@@ -1997,8 +2748,11 @@
       <c r="C125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>84</v>
       </c>
@@ -2008,8 +2762,11 @@
       <c r="C126" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>85</v>
       </c>
@@ -2019,8 +2776,11 @@
       <c r="C127" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
